--- a/P2_Performer/Results/03-28-2023/Rich Drexel - London, England, United Kingdom.xlsx
+++ b/P2_Performer/Results/03-28-2023/Rich Drexel - London, England, United Kingdom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\GetawayGurus\P2_Performer\Results\03-28-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA87728-ABD1-46C0-A4E1-5F43CAF33078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3AC7A02-C0F3-427C-9731-30B8CDF16F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A1FAF4A7-F0BB-4497-A1BA-7F4F59656CDF}"/>
+    <workbookView xWindow="3108" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{A1FAF4A7-F0BB-4497-A1BA-7F4F59656CDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -742,18 +742,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -763,6 +751,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -782,7 +773,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1120,188 +1120,188 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="45"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="47">
         <v>319</v>
       </c>
       <c r="C2" s="11">
         <v>8</v>
       </c>
-      <c r="D2" s="46">
+      <c r="D2" s="37">
         <f>PRODUCT(B2,C2)</f>
         <v>2552</v>
       </c>
-      <c r="E2" s="47"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="53">
+      <c r="B3" s="48">
         <v>300</v>
       </c>
       <c r="C3" s="8">
         <v>8</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="37">
         <f t="shared" ref="D3:D4" si="0">PRODUCT(B3,C3)</f>
         <v>2400</v>
       </c>
-      <c r="E3" s="47"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="49">
         <v>467</v>
       </c>
       <c r="C4" s="13">
         <v>8</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="37">
         <f t="shared" si="0"/>
         <v>3736</v>
       </c>
-      <c r="E4" s="47"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
     </row>
     <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
     </row>
     <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
     </row>
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
     </row>
     <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
     </row>
     <row r="17" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
@@ -1321,7 +1321,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="29">
+      <c r="A18" s="50">
         <v>45237</v>
       </c>
       <c r="B18" s="19">
@@ -1338,7 +1338,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="30">
+      <c r="A19" s="51">
         <v>45238</v>
       </c>
       <c r="B19" s="8">
@@ -1355,7 +1355,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="30">
+      <c r="A20" s="51">
         <v>45239</v>
       </c>
       <c r="B20" s="8">
@@ -1372,24 +1372,24 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="30">
+      <c r="A21" s="51">
         <v>45240</v>
       </c>
       <c r="B21" s="8">
-        <v>43.1</v>
+        <v>43.4</v>
       </c>
       <c r="C21" s="8">
-        <v>51.7</v>
+        <v>51.8</v>
       </c>
       <c r="D21" s="7">
-        <v>12.8</v>
+        <v>13.4</v>
       </c>
       <c r="E21" s="9">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="30">
+      <c r="A22" s="51">
         <v>45241</v>
       </c>
       <c r="B22" s="8">
@@ -1406,7 +1406,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="31">
+      <c r="A23" s="52">
         <v>45242</v>
       </c>
       <c r="B23" s="5">
@@ -1423,7 +1423,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="32">
+      <c r="A24" s="53">
         <v>45243</v>
       </c>
       <c r="B24" s="21">
@@ -1440,7 +1440,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="30">
+      <c r="A25" s="51">
         <v>45244</v>
       </c>
       <c r="B25" s="8">
@@ -1500,6 +1500,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
@@ -1511,11 +1516,6 @@
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/P2_Performer/Results/03-28-2023/Rich Drexel - London, England, United Kingdom.xlsx
+++ b/P2_Performer/Results/03-28-2023/Rich Drexel - London, England, United Kingdom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\GetawayGurus\P2_Performer\Results\03-28-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3AC7A02-C0F3-427C-9731-30B8CDF16F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FAD7D8C-1BC7-4474-8589-B276D61B84CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3108" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{A1FAF4A7-F0BB-4497-A1BA-7F4F59656CDF}"/>
   </bookViews>
@@ -131,7 +131,7 @@
     <t>Baythorne Hall, Halstead, Essex, CO9 4AH</t>
   </si>
   <si>
-    <t>The Hoxton Southwark</t>
+    <t>St. James' Court, A Taj Hotel, London</t>
   </si>
   <si>
     <t>Residence Inn by Marriott London Kensington</t>
